--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>Carlos Castillo</t>
+  </si>
+  <si>
+    <t>Modulo II</t>
+  </si>
+  <si>
+    <t>Modulo III</t>
+  </si>
+  <si>
+    <t>Modulo IV</t>
+  </si>
+  <si>
+    <t>Diego Vásquez</t>
+  </si>
+  <si>
+    <t>Josué Vega</t>
+  </si>
+  <si>
+    <t>Cristopher Joel</t>
   </si>
 </sst>
 </file>
@@ -123,11 +141,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,34 +440,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -458,13 +476,13 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>43867</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>43867</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -475,10 +493,10 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>43868</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>43869</v>
       </c>
       <c r="F5" t="s">
@@ -492,10 +510,10 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>43869</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>43870</v>
       </c>
       <c r="F6" t="s">
@@ -509,59 +527,141 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>43871</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>43874</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>43871</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>43871</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>43872</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>43872</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>43873</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>43874</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planificacion.xlsx
+++ b/Planificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -50,18 +50,12 @@
     <t>GitHub</t>
   </si>
   <si>
-    <t>Diego</t>
-  </si>
-  <si>
     <t>Diagrama Contexto</t>
   </si>
   <si>
     <t>Diagrama Cero</t>
   </si>
   <si>
-    <t>Modulo I</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Diagrama Hijo</t>
   </si>
   <si>
@@ -77,22 +71,34 @@
     <t>Carlos Castillo</t>
   </si>
   <si>
-    <t>Modulo II</t>
-  </si>
-  <si>
-    <t>Modulo III</t>
-  </si>
-  <si>
-    <t>Modulo IV</t>
-  </si>
-  <si>
     <t>Diego Vásquez</t>
   </si>
   <si>
     <t>Josué Vega</t>
   </si>
   <si>
-    <t>Cristopher Joel</t>
+    <t>Hijo 1.1</t>
+  </si>
+  <si>
+    <t>Hijo 1.2</t>
+  </si>
+  <si>
+    <t>Hijo 1.3</t>
+  </si>
+  <si>
+    <t>Hijo 2.1</t>
+  </si>
+  <si>
+    <t>Hijo 3.1</t>
+  </si>
+  <si>
+    <t>Cristopher Muñoz Moisés Felipe</t>
+  </si>
+  <si>
+    <t>Ensamblado</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,16 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,7 +484,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -483,176 +497,360 @@
         <v>43867</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43867</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43867</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E8" s="2">
         <v>43868</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
         <v>43869</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E9" s="2">
+        <v>43870</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43875</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43869</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43870</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43875</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43869</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43870</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43875</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D20" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2">
         <v>43869</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E21" s="2">
         <v>43870</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43875</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43868</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43869</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43870</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43875</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43876</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43877</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43878</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43879</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43871</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43874</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43871</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43871</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43872</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43872</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43873</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43874</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F11:F14"/>
@@ -661,7 +859,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
